--- a/static/upload/attendance_files/Attendance_Sheet_1.xlsx
+++ b/static/upload/attendance_files/Attendance_Sheet_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohmd\Desktop\Capstone II\hrm_capstone\static\upload\attendance_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C952274-0F7C-483E-8378-AA6BD8EE2F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D86579E-AD3D-487D-AB24-F7E8877296FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>attendance_user_id</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>attendance_clock_out</t>
-  </si>
-  <si>
-    <t>attendance_total_hours</t>
   </si>
   <si>
     <t>attendance_half_day</t>
@@ -56,8 +53,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -90,17 +87,17 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -393,12 +390,11 @@
     <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -417,13 +413,10 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3">
         <v>44114</v>
@@ -432,108 +425,93 @@
         <v>44114</v>
       </c>
       <c r="D2" s="4">
-        <v>44114</v>
+        <v>44114.333333333336</v>
       </c>
       <c r="E2" s="2">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3">
         <v>45</v>
       </c>
       <c r="C3" s="4">
-        <v>45.04914351851852</v>
+        <v>44114</v>
       </c>
       <c r="D3" s="4">
-        <v>44241.049143518518</v>
+        <v>44114.333333333336</v>
       </c>
       <c r="E3" s="2">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>7</v>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3">
         <v>12</v>
       </c>
       <c r="C4" s="4">
-        <v>12.049143518518518</v>
+        <v>44114</v>
       </c>
       <c r="D4" s="4">
-        <v>44208.049143518518</v>
+        <v>44114.333333333336</v>
       </c>
       <c r="E4" s="2">
-        <v>4</v>
-      </c>
-      <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>4</v>
       </c>
       <c r="B5" s="3">
         <v>17</v>
       </c>
       <c r="C5" s="4">
-        <v>17.04914351851852</v>
+        <v>44114</v>
       </c>
       <c r="D5" s="4">
-        <v>44213.049143518518</v>
+        <v>44114.333333333336</v>
       </c>
       <c r="E5" s="2">
-        <v>5</v>
-      </c>
-      <c r="F5" s="2">
         <v>1</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>7</v>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3">
         <v>26</v>
       </c>
       <c r="C6" s="4">
-        <v>26.04914351851852</v>
+        <v>44114</v>
       </c>
       <c r="D6" s="4">
-        <v>44222.049143518518</v>
+        <v>44114.333333333336</v>
       </c>
       <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
